--- a/BackTest/2020-01-15 BackTest MXC.xlsx
+++ b/BackTest/2020-01-15 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1026,6 +1047,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1069,6 +1091,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1110,6 +1133,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1145,6 +1169,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1180,6 +1205,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1215,6 +1241,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,6 +1277,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1285,6 +1313,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,6 +1349,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1355,6 +1385,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1390,6 +1421,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1425,6 +1457,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1460,6 +1493,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1495,6 +1529,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1530,6 +1565,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1565,6 +1601,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1600,6 +1637,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1635,6 +1673,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1670,6 +1709,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1705,6 +1745,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1740,6 +1781,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1775,6 +1817,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1810,6 +1853,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1845,6 +1889,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1880,6 +1925,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1915,6 +1961,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1950,6 +1997,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1985,6 +2033,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2020,6 +2069,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2055,6 +2105,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2090,6 +2141,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2125,6 +2177,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2160,6 +2213,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2195,6 +2249,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2230,6 +2285,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2265,6 +2321,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2300,6 +2357,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2335,6 +2393,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2370,6 +2429,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2405,6 +2465,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2440,6 +2501,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2475,6 +2537,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2510,6 +2573,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2545,6 +2609,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2580,6 +2645,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2615,6 +2681,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2650,6 +2717,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2685,6 +2753,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2720,6 +2789,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2755,6 +2825,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2790,6 +2861,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2825,6 +2897,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2860,6 +2933,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2895,6 +2969,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2930,6 +3005,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2965,6 +3041,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3000,6 +3077,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3035,6 +3113,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3070,6 +3149,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3105,6 +3185,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3140,6 +3221,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3175,6 +3257,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3210,6 +3293,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3245,6 +3329,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3280,6 +3365,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3315,6 +3401,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3350,6 +3437,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3385,6 +3473,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3412,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3420,6 +3509,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3455,6 +3545,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3490,6 +3581,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3525,6 +3617,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3560,6 +3653,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3587,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3595,6 +3689,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3630,6 +3725,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3665,6 +3761,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3700,6 +3797,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3727,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3735,6 +3833,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3770,6 +3869,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3797,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3805,6 +3905,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3832,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3840,6 +3941,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3867,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3875,6 +3977,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3902,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3910,6 +4013,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3937,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -3945,6 +4049,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3980,6 +4085,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4015,6 +4121,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4050,6 +4157,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4077,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4085,6 +4193,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4112,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4120,6 +4229,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4155,6 +4265,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4190,6 +4301,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4225,6 +4337,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4252,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4260,6 +4373,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest MXC.xlsx
+++ b/BackTest/2020-01-15 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.707</v>
+        <v>1.709</v>
       </c>
       <c r="C2" t="n">
-        <v>1.707</v>
+        <v>1.709</v>
       </c>
       <c r="D2" t="n">
-        <v>1.707</v>
+        <v>1.709</v>
       </c>
       <c r="E2" t="n">
-        <v>1.707</v>
+        <v>1.709</v>
       </c>
       <c r="F2" t="n">
-        <v>300</v>
+        <v>15176.2523</v>
       </c>
       <c r="G2" t="n">
-        <v>5949489.953082167</v>
+        <v>1721071.674069876</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.682</v>
+        <v>1.699</v>
       </c>
       <c r="C3" t="n">
-        <v>1.682</v>
+        <v>1.699</v>
       </c>
       <c r="D3" t="n">
-        <v>1.682</v>
+        <v>1.699</v>
       </c>
       <c r="E3" t="n">
-        <v>1.682</v>
+        <v>1.699</v>
       </c>
       <c r="F3" t="n">
-        <v>277636.4982</v>
+        <v>342353.7226</v>
       </c>
       <c r="G3" t="n">
-        <v>5671853.454882166</v>
+        <v>1378717.951469876</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.707</v>
+        <v>1.699</v>
       </c>
       <c r="C4" t="n">
-        <v>1.707</v>
+        <v>1.699</v>
       </c>
       <c r="D4" t="n">
-        <v>1.707</v>
+        <v>1.699</v>
       </c>
       <c r="E4" t="n">
-        <v>1.707</v>
+        <v>1.699</v>
       </c>
       <c r="F4" t="n">
-        <v>300</v>
+        <v>104394.352</v>
       </c>
       <c r="G4" t="n">
-        <v>5672153.454882166</v>
+        <v>1378717.951469876</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.682</v>
+        <v>1.698</v>
       </c>
       <c r="C5" t="n">
-        <v>1.682</v>
+        <v>1.698</v>
       </c>
       <c r="D5" t="n">
-        <v>1.682</v>
+        <v>1.698</v>
       </c>
       <c r="E5" t="n">
-        <v>1.682</v>
+        <v>1.698</v>
       </c>
       <c r="F5" t="n">
-        <v>19075.0849</v>
+        <v>294.4641</v>
       </c>
       <c r="G5" t="n">
-        <v>5653078.369982166</v>
+        <v>1378423.487369876</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.707</v>
+        <v>1.705</v>
       </c>
       <c r="C6" t="n">
-        <v>1.707</v>
+        <v>1.705</v>
       </c>
       <c r="D6" t="n">
-        <v>1.707</v>
+        <v>1.705</v>
       </c>
       <c r="E6" t="n">
-        <v>1.707</v>
+        <v>1.705</v>
       </c>
       <c r="F6" t="n">
-        <v>300</v>
+        <v>5000000</v>
       </c>
       <c r="G6" t="n">
-        <v>5653378.369982166</v>
+        <v>6378423.487369876</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.682</v>
+        <v>1.709</v>
       </c>
       <c r="C7" t="n">
-        <v>1.682</v>
+        <v>1.709</v>
       </c>
       <c r="D7" t="n">
-        <v>1.682</v>
+        <v>1.709</v>
       </c>
       <c r="E7" t="n">
-        <v>1.682</v>
+        <v>1.709</v>
       </c>
       <c r="F7" t="n">
-        <v>346941</v>
+        <v>20000</v>
       </c>
       <c r="G7" t="n">
-        <v>5306437.369982166</v>
+        <v>6398423.487369876</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.707</v>
+        <v>1.709</v>
       </c>
       <c r="C8" t="n">
-        <v>1.707</v>
+        <v>1.709</v>
       </c>
       <c r="D8" t="n">
-        <v>1.707</v>
+        <v>1.709</v>
       </c>
       <c r="E8" t="n">
-        <v>1.707</v>
+        <v>1.709</v>
       </c>
       <c r="F8" t="n">
-        <v>300</v>
+        <v>100000</v>
       </c>
       <c r="G8" t="n">
-        <v>5306737.369982166</v>
+        <v>6398423.487369876</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.682</v>
+        <v>1.709</v>
       </c>
       <c r="C9" t="n">
-        <v>1.682</v>
+        <v>1.748</v>
       </c>
       <c r="D9" t="n">
-        <v>1.682</v>
+        <v>1.748</v>
       </c>
       <c r="E9" t="n">
-        <v>1.682</v>
+        <v>1.709</v>
       </c>
       <c r="F9" t="n">
-        <v>803484.284</v>
+        <v>540000</v>
       </c>
       <c r="G9" t="n">
-        <v>4503253.085982166</v>
+        <v>6938423.487369876</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.682</v>
+        <v>1.7</v>
       </c>
       <c r="C10" t="n">
-        <v>1.681</v>
+        <v>1.7</v>
       </c>
       <c r="D10" t="n">
-        <v>1.682</v>
+        <v>1.7</v>
       </c>
       <c r="E10" t="n">
-        <v>1.681</v>
+        <v>1.7</v>
       </c>
       <c r="F10" t="n">
-        <v>443761.4997</v>
+        <v>75376.5385</v>
       </c>
       <c r="G10" t="n">
-        <v>4059491.586282166</v>
+        <v>6863046.948869877</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.705</v>
+        <v>1.697</v>
       </c>
       <c r="C11" t="n">
-        <v>1.707</v>
+        <v>1.691</v>
       </c>
       <c r="D11" t="n">
-        <v>1.707</v>
+        <v>1.697</v>
       </c>
       <c r="E11" t="n">
-        <v>1.705</v>
+        <v>1.691</v>
       </c>
       <c r="F11" t="n">
-        <v>120000</v>
+        <v>191087.5576</v>
       </c>
       <c r="G11" t="n">
-        <v>4179491.586282166</v>
+        <v>6671959.391269877</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.707</v>
+        <v>1.71</v>
       </c>
       <c r="C12" t="n">
-        <v>1.726</v>
+        <v>1.7</v>
       </c>
       <c r="D12" t="n">
-        <v>1.726</v>
+        <v>1.71</v>
       </c>
       <c r="E12" t="n">
-        <v>1.707</v>
+        <v>1.7</v>
       </c>
       <c r="F12" t="n">
-        <v>534703</v>
+        <v>240569.8667</v>
       </c>
       <c r="G12" t="n">
-        <v>4714194.586282166</v>
+        <v>6912529.257969877</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="C13" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="D13" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="E13" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="F13" t="n">
-        <v>20000</v>
+        <v>207502.9465</v>
       </c>
       <c r="G13" t="n">
-        <v>4694194.586282166</v>
+        <v>6912529.257969877</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.683</v>
+        <v>1.71</v>
       </c>
       <c r="C14" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="D14" t="n">
-        <v>1.683</v>
+        <v>1.71</v>
       </c>
       <c r="E14" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="F14" t="n">
-        <v>901732.7622</v>
+        <v>650</v>
       </c>
       <c r="G14" t="n">
-        <v>3792461.824082166</v>
+        <v>6913179.257969877</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.68</v>
+        <v>1.693</v>
       </c>
       <c r="C15" t="n">
-        <v>1.68</v>
+        <v>1.693</v>
       </c>
       <c r="D15" t="n">
-        <v>1.68</v>
+        <v>1.693</v>
       </c>
       <c r="E15" t="n">
-        <v>1.68</v>
+        <v>1.693</v>
       </c>
       <c r="F15" t="n">
-        <v>2768877.2987</v>
+        <v>2233.1154</v>
       </c>
       <c r="G15" t="n">
-        <v>3792461.824082166</v>
+        <v>6910946.142569877</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.69</v>
+        <v>1.691</v>
       </c>
       <c r="C16" t="n">
-        <v>1.68</v>
+        <v>1.709</v>
       </c>
       <c r="D16" t="n">
-        <v>1.69</v>
+        <v>1.709</v>
       </c>
       <c r="E16" t="n">
-        <v>1.68</v>
+        <v>1.691</v>
       </c>
       <c r="F16" t="n">
-        <v>849124.7352</v>
+        <v>433285.1254</v>
       </c>
       <c r="G16" t="n">
-        <v>3792461.824082166</v>
+        <v>7344231.267969877</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.68</v>
+        <v>1.689</v>
       </c>
       <c r="C17" t="n">
-        <v>1.699</v>
+        <v>1.73</v>
       </c>
       <c r="D17" t="n">
-        <v>1.699</v>
+        <v>1.73</v>
       </c>
       <c r="E17" t="n">
-        <v>1.68</v>
+        <v>1.689</v>
       </c>
       <c r="F17" t="n">
-        <v>90400</v>
+        <v>130852.0332</v>
       </c>
       <c r="G17" t="n">
-        <v>3882861.824082166</v>
+        <v>7475083.301169878</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,35 +1014,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="C18" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D18" t="n">
-        <v>1.68</v>
+        <v>1.709</v>
       </c>
       <c r="E18" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="F18" t="n">
-        <v>39436.5633</v>
+        <v>1728726.1077</v>
       </c>
       <c r="G18" t="n">
-        <v>3843425.260782166</v>
+        <v>5746357.193469878</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1.699</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
@@ -1054,40 +1050,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.697</v>
+        <v>1.71</v>
       </c>
       <c r="C19" t="n">
-        <v>1.697</v>
+        <v>1.682</v>
       </c>
       <c r="D19" t="n">
-        <v>1.697</v>
+        <v>1.71</v>
       </c>
       <c r="E19" t="n">
-        <v>1.697</v>
+        <v>1.681</v>
       </c>
       <c r="F19" t="n">
-        <v>10000</v>
+        <v>141923.3</v>
       </c>
       <c r="G19" t="n">
-        <v>3853425.260782166</v>
+        <v>5604433.893469878</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1098,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.697</v>
+        <v>1.682</v>
       </c>
       <c r="C20" t="n">
-        <v>1.697</v>
+        <v>1.682</v>
       </c>
       <c r="D20" t="n">
-        <v>1.697</v>
+        <v>1.682</v>
       </c>
       <c r="E20" t="n">
-        <v>1.697</v>
+        <v>1.682</v>
       </c>
       <c r="F20" t="n">
-        <v>2195</v>
+        <v>230804.3614</v>
       </c>
       <c r="G20" t="n">
-        <v>3853425.260782166</v>
+        <v>5604433.893469878</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,14 +1110,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1140,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.688</v>
+        <v>1.683</v>
       </c>
       <c r="C21" t="n">
-        <v>1.697</v>
+        <v>1.69</v>
       </c>
       <c r="D21" t="n">
-        <v>1.697</v>
+        <v>1.69</v>
       </c>
       <c r="E21" t="n">
-        <v>1.688</v>
+        <v>1.683</v>
       </c>
       <c r="F21" t="n">
-        <v>7371466.3076</v>
+        <v>316996.025</v>
       </c>
       <c r="G21" t="n">
-        <v>3853425.260782166</v>
+        <v>5921429.918469879</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1176,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.688</v>
+        <v>1.69</v>
       </c>
       <c r="C22" t="n">
-        <v>1.688</v>
+        <v>1.727</v>
       </c>
       <c r="D22" t="n">
-        <v>1.688</v>
+        <v>1.727</v>
       </c>
       <c r="E22" t="n">
-        <v>1.688</v>
+        <v>1.69</v>
       </c>
       <c r="F22" t="n">
-        <v>7204436.9814</v>
+        <v>245247</v>
       </c>
       <c r="G22" t="n">
-        <v>-3351011.720617834</v>
+        <v>6166676.918469879</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1212,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.688</v>
+        <v>1.69</v>
       </c>
       <c r="C23" t="n">
-        <v>1.688</v>
+        <v>1.69</v>
       </c>
       <c r="D23" t="n">
-        <v>1.688</v>
+        <v>1.69</v>
       </c>
       <c r="E23" t="n">
-        <v>1.688</v>
+        <v>1.69</v>
       </c>
       <c r="F23" t="n">
-        <v>7188154.1566</v>
+        <v>200000</v>
       </c>
       <c r="G23" t="n">
-        <v>-3351011.720617834</v>
+        <v>5966676.918469879</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1248,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.688</v>
+        <v>1.709</v>
       </c>
       <c r="C24" t="n">
-        <v>1.688</v>
+        <v>1.709</v>
       </c>
       <c r="D24" t="n">
-        <v>1.688</v>
+        <v>1.709</v>
       </c>
       <c r="E24" t="n">
-        <v>1.688</v>
+        <v>1.709</v>
       </c>
       <c r="F24" t="n">
-        <v>5440085.0676</v>
+        <v>103983.0310122879</v>
       </c>
       <c r="G24" t="n">
-        <v>-3351011.720617834</v>
+        <v>6070659.949482167</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1284,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.68</v>
+        <v>1.683</v>
       </c>
       <c r="C25" t="n">
-        <v>1.694</v>
+        <v>1.683</v>
       </c>
       <c r="D25" t="n">
-        <v>1.694</v>
+        <v>1.683</v>
       </c>
       <c r="E25" t="n">
-        <v>1.68</v>
+        <v>1.683</v>
       </c>
       <c r="F25" t="n">
-        <v>6562948.9672</v>
+        <v>100000</v>
       </c>
       <c r="G25" t="n">
-        <v>3211937.246582166</v>
+        <v>5970659.949482167</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1320,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.701</v>
+        <v>1.683</v>
       </c>
       <c r="C26" t="n">
-        <v>1.701</v>
+        <v>1.683</v>
       </c>
       <c r="D26" t="n">
-        <v>1.701</v>
+        <v>1.683</v>
       </c>
       <c r="E26" t="n">
-        <v>1.701</v>
+        <v>1.683</v>
       </c>
       <c r="F26" t="n">
-        <v>3822762.4799</v>
+        <v>239462.477</v>
       </c>
       <c r="G26" t="n">
-        <v>7034699.726482166</v>
+        <v>5970659.949482167</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1356,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.703</v>
+        <v>1.683</v>
       </c>
       <c r="C27" t="n">
-        <v>1.703</v>
+        <v>1.707</v>
       </c>
       <c r="D27" t="n">
-        <v>1.703</v>
+        <v>1.707</v>
       </c>
       <c r="E27" t="n">
-        <v>1.703</v>
+        <v>1.683</v>
       </c>
       <c r="F27" t="n">
-        <v>5858202.4927</v>
+        <v>19269.0308</v>
       </c>
       <c r="G27" t="n">
-        <v>12892902.21918217</v>
+        <v>5989928.980282167</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1392,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.707</v>
+        <v>1.683</v>
       </c>
       <c r="C28" t="n">
-        <v>1.707</v>
+        <v>1.683</v>
       </c>
       <c r="D28" t="n">
-        <v>1.707</v>
+        <v>1.683</v>
       </c>
       <c r="E28" t="n">
-        <v>1.707</v>
+        <v>1.683</v>
       </c>
       <c r="F28" t="n">
-        <v>814.0151</v>
+        <v>40739.0272</v>
       </c>
       <c r="G28" t="n">
-        <v>12893716.23428217</v>
+        <v>5949189.953082167</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1428,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.69</v>
+        <v>1.683</v>
       </c>
       <c r="C29" t="n">
-        <v>1.69</v>
+        <v>1.683</v>
       </c>
       <c r="D29" t="n">
-        <v>1.69</v>
+        <v>1.683</v>
       </c>
       <c r="E29" t="n">
-        <v>1.69</v>
+        <v>1.683</v>
       </c>
       <c r="F29" t="n">
-        <v>161674.4471</v>
+        <v>24237.2406</v>
       </c>
       <c r="G29" t="n">
-        <v>12732041.78718217</v>
+        <v>5949189.953082167</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1464,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.69</v>
+        <v>1.683</v>
       </c>
       <c r="C30" t="n">
-        <v>1.688</v>
+        <v>1.683</v>
       </c>
       <c r="D30" t="n">
-        <v>1.69</v>
+        <v>1.683</v>
       </c>
       <c r="E30" t="n">
-        <v>1.688</v>
+        <v>1.683</v>
       </c>
       <c r="F30" t="n">
-        <v>338268.9725</v>
+        <v>11294.8773</v>
       </c>
       <c r="G30" t="n">
-        <v>12393772.81468217</v>
+        <v>5949189.953082167</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1500,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.688</v>
+        <v>1.707</v>
       </c>
       <c r="C31" t="n">
-        <v>1.69</v>
+        <v>1.707</v>
       </c>
       <c r="D31" t="n">
-        <v>1.69</v>
+        <v>1.707</v>
       </c>
       <c r="E31" t="n">
-        <v>1.688</v>
+        <v>1.707</v>
       </c>
       <c r="F31" t="n">
-        <v>40000</v>
+        <v>300</v>
       </c>
       <c r="G31" t="n">
-        <v>12433772.81468217</v>
+        <v>5949489.953082167</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1536,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.69</v>
+        <v>1.682</v>
       </c>
       <c r="C32" t="n">
-        <v>1.69</v>
+        <v>1.682</v>
       </c>
       <c r="D32" t="n">
-        <v>1.69</v>
+        <v>1.682</v>
       </c>
       <c r="E32" t="n">
-        <v>1.69</v>
+        <v>1.682</v>
       </c>
       <c r="F32" t="n">
-        <v>120000</v>
+        <v>277636.4982</v>
       </c>
       <c r="G32" t="n">
-        <v>12433772.81468217</v>
+        <v>5671853.454882166</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1572,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.69</v>
+        <v>1.707</v>
       </c>
       <c r="C33" t="n">
-        <v>1.69</v>
+        <v>1.707</v>
       </c>
       <c r="D33" t="n">
-        <v>1.69</v>
+        <v>1.707</v>
       </c>
       <c r="E33" t="n">
-        <v>1.69</v>
+        <v>1.707</v>
       </c>
       <c r="F33" t="n">
-        <v>140000</v>
+        <v>300</v>
       </c>
       <c r="G33" t="n">
-        <v>12433772.81468217</v>
+        <v>5672153.454882166</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1608,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.69</v>
+        <v>1.682</v>
       </c>
       <c r="C34" t="n">
-        <v>1.69</v>
+        <v>1.682</v>
       </c>
       <c r="D34" t="n">
-        <v>1.69</v>
+        <v>1.682</v>
       </c>
       <c r="E34" t="n">
-        <v>1.69</v>
+        <v>1.682</v>
       </c>
       <c r="F34" t="n">
-        <v>39301.9227</v>
+        <v>19075.0849</v>
       </c>
       <c r="G34" t="n">
-        <v>12433772.81468217</v>
+        <v>5653078.369982166</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1644,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.69</v>
+        <v>1.707</v>
       </c>
       <c r="C35" t="n">
-        <v>1.69</v>
+        <v>1.707</v>
       </c>
       <c r="D35" t="n">
-        <v>1.69</v>
+        <v>1.707</v>
       </c>
       <c r="E35" t="n">
-        <v>1.69</v>
+        <v>1.707</v>
       </c>
       <c r="F35" t="n">
-        <v>110245.3806</v>
+        <v>300</v>
       </c>
       <c r="G35" t="n">
-        <v>12433772.81468217</v>
+        <v>5653378.369982166</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1680,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.7</v>
+        <v>1.682</v>
       </c>
       <c r="C36" t="n">
-        <v>1.7</v>
+        <v>1.682</v>
       </c>
       <c r="D36" t="n">
-        <v>1.7</v>
+        <v>1.682</v>
       </c>
       <c r="E36" t="n">
-        <v>1.7</v>
+        <v>1.682</v>
       </c>
       <c r="F36" t="n">
-        <v>161674.4471</v>
+        <v>346941</v>
       </c>
       <c r="G36" t="n">
-        <v>12595447.26178217</v>
+        <v>5306437.369982166</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1716,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.681</v>
+        <v>1.707</v>
       </c>
       <c r="C37" t="n">
-        <v>1.7</v>
+        <v>1.707</v>
       </c>
       <c r="D37" t="n">
-        <v>1.7</v>
+        <v>1.707</v>
       </c>
       <c r="E37" t="n">
-        <v>1.68</v>
+        <v>1.707</v>
       </c>
       <c r="F37" t="n">
-        <v>688807.515</v>
+        <v>300</v>
       </c>
       <c r="G37" t="n">
-        <v>12595447.26178217</v>
+        <v>5306737.369982166</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1764,10 +1746,10 @@
         <v>1.682</v>
       </c>
       <c r="F38" t="n">
-        <v>21189.0607</v>
+        <v>803484.284</v>
       </c>
       <c r="G38" t="n">
-        <v>12574258.20108217</v>
+        <v>4503253.085982166</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1791,19 +1773,19 @@
         <v>1.682</v>
       </c>
       <c r="C39" t="n">
-        <v>1.682</v>
+        <v>1.681</v>
       </c>
       <c r="D39" t="n">
         <v>1.682</v>
       </c>
       <c r="E39" t="n">
-        <v>1.682</v>
+        <v>1.681</v>
       </c>
       <c r="F39" t="n">
-        <v>82022</v>
+        <v>443761.4997</v>
       </c>
       <c r="G39" t="n">
-        <v>12574258.20108217</v>
+        <v>4059491.586282166</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1824,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.682</v>
+        <v>1.705</v>
       </c>
       <c r="C40" t="n">
-        <v>1.682</v>
+        <v>1.707</v>
       </c>
       <c r="D40" t="n">
-        <v>1.682</v>
+        <v>1.707</v>
       </c>
       <c r="E40" t="n">
-        <v>1.682</v>
+        <v>1.705</v>
       </c>
       <c r="F40" t="n">
-        <v>186915.1497</v>
+        <v>120000</v>
       </c>
       <c r="G40" t="n">
-        <v>12574258.20108217</v>
+        <v>4179491.586282166</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1860,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.682</v>
+        <v>1.707</v>
       </c>
       <c r="C41" t="n">
-        <v>1.682</v>
+        <v>1.726</v>
       </c>
       <c r="D41" t="n">
-        <v>1.682</v>
+        <v>1.726</v>
       </c>
       <c r="E41" t="n">
-        <v>1.682</v>
+        <v>1.707</v>
       </c>
       <c r="F41" t="n">
-        <v>25648</v>
+        <v>534703</v>
       </c>
       <c r="G41" t="n">
-        <v>12574258.20108217</v>
+        <v>4714194.586282166</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1896,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.682</v>
+        <v>1.71</v>
       </c>
       <c r="C42" t="n">
-        <v>1.682</v>
+        <v>1.71</v>
       </c>
       <c r="D42" t="n">
-        <v>1.682</v>
+        <v>1.71</v>
       </c>
       <c r="E42" t="n">
-        <v>1.682</v>
+        <v>1.71</v>
       </c>
       <c r="F42" t="n">
-        <v>26700</v>
+        <v>20000</v>
       </c>
       <c r="G42" t="n">
-        <v>12574258.20108217</v>
+        <v>4694194.586282166</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1932,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.682</v>
+        <v>1.683</v>
       </c>
       <c r="C43" t="n">
-        <v>1.682</v>
+        <v>1.68</v>
       </c>
       <c r="D43" t="n">
-        <v>1.682</v>
+        <v>1.683</v>
       </c>
       <c r="E43" t="n">
-        <v>1.682</v>
+        <v>1.68</v>
       </c>
       <c r="F43" t="n">
-        <v>20000</v>
+        <v>901732.7622</v>
       </c>
       <c r="G43" t="n">
-        <v>12574258.20108217</v>
+        <v>3792461.824082166</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1968,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="C44" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="D44" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="E44" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="F44" t="n">
-        <v>12544.261</v>
+        <v>2768877.2987</v>
       </c>
       <c r="G44" t="n">
-        <v>12586802.46208217</v>
+        <v>3792461.824082166</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2004,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.706</v>
+        <v>1.69</v>
       </c>
       <c r="C45" t="n">
-        <v>1.706</v>
+        <v>1.68</v>
       </c>
       <c r="D45" t="n">
-        <v>1.706</v>
+        <v>1.69</v>
       </c>
       <c r="E45" t="n">
-        <v>1.706</v>
+        <v>1.68</v>
       </c>
       <c r="F45" t="n">
-        <v>293.0833</v>
+        <v>849124.7352</v>
       </c>
       <c r="G45" t="n">
-        <v>12587095.54538217</v>
+        <v>3792461.824082166</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2040,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.691</v>
+        <v>1.68</v>
       </c>
       <c r="C46" t="n">
-        <v>1.691</v>
+        <v>1.699</v>
       </c>
       <c r="D46" t="n">
-        <v>1.691</v>
+        <v>1.699</v>
       </c>
       <c r="E46" t="n">
-        <v>1.691</v>
+        <v>1.68</v>
       </c>
       <c r="F46" t="n">
-        <v>295.6831</v>
+        <v>90400</v>
       </c>
       <c r="G46" t="n">
-        <v>12586799.86228217</v>
+        <v>3882861.824082166</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2076,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="C47" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="D47" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="E47" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="F47" t="n">
-        <v>9704.3169</v>
+        <v>39436.5633</v>
       </c>
       <c r="G47" t="n">
-        <v>12577095.54538217</v>
+        <v>3843425.260782166</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2112,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.683</v>
+        <v>1.697</v>
       </c>
       <c r="C48" t="n">
-        <v>1.67</v>
+        <v>1.697</v>
       </c>
       <c r="D48" t="n">
-        <v>1.683</v>
+        <v>1.697</v>
       </c>
       <c r="E48" t="n">
-        <v>1.67</v>
+        <v>1.697</v>
       </c>
       <c r="F48" t="n">
-        <v>488895.994</v>
+        <v>10000</v>
       </c>
       <c r="G48" t="n">
-        <v>12088199.55138217</v>
+        <v>3853425.260782166</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2148,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.7</v>
+        <v>1.697</v>
       </c>
       <c r="C49" t="n">
-        <v>1.7</v>
+        <v>1.697</v>
       </c>
       <c r="D49" t="n">
-        <v>1.7</v>
+        <v>1.697</v>
       </c>
       <c r="E49" t="n">
-        <v>1.7</v>
+        <v>1.697</v>
       </c>
       <c r="F49" t="n">
-        <v>13440</v>
+        <v>2195</v>
       </c>
       <c r="G49" t="n">
-        <v>12101639.55138217</v>
+        <v>3853425.260782166</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2184,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.7</v>
+        <v>1.688</v>
       </c>
       <c r="C50" t="n">
-        <v>1.7</v>
+        <v>1.697</v>
       </c>
       <c r="D50" t="n">
-        <v>1.7</v>
+        <v>1.697</v>
       </c>
       <c r="E50" t="n">
-        <v>1.7</v>
+        <v>1.688</v>
       </c>
       <c r="F50" t="n">
-        <v>32081.9774</v>
+        <v>7371466.3076</v>
       </c>
       <c r="G50" t="n">
-        <v>12101639.55138217</v>
+        <v>3853425.260782166</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2220,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.7</v>
+        <v>1.688</v>
       </c>
       <c r="C51" t="n">
-        <v>1.707</v>
+        <v>1.688</v>
       </c>
       <c r="D51" t="n">
-        <v>1.707</v>
+        <v>1.688</v>
       </c>
       <c r="E51" t="n">
-        <v>1.7</v>
+        <v>1.688</v>
       </c>
       <c r="F51" t="n">
-        <v>40000</v>
+        <v>7204436.9814</v>
       </c>
       <c r="G51" t="n">
-        <v>12141639.55138217</v>
+        <v>-3351011.720617834</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2256,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.707</v>
+        <v>1.688</v>
       </c>
       <c r="C52" t="n">
-        <v>1.707</v>
+        <v>1.688</v>
       </c>
       <c r="D52" t="n">
-        <v>1.707</v>
+        <v>1.688</v>
       </c>
       <c r="E52" t="n">
-        <v>1.707</v>
+        <v>1.688</v>
       </c>
       <c r="F52" t="n">
-        <v>60000</v>
+        <v>7188154.1566</v>
       </c>
       <c r="G52" t="n">
-        <v>12141639.55138217</v>
+        <v>-3351011.720617834</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2292,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.707</v>
+        <v>1.688</v>
       </c>
       <c r="C53" t="n">
-        <v>1.707</v>
+        <v>1.688</v>
       </c>
       <c r="D53" t="n">
-        <v>1.707</v>
+        <v>1.688</v>
       </c>
       <c r="E53" t="n">
-        <v>1.707</v>
+        <v>1.688</v>
       </c>
       <c r="F53" t="n">
-        <v>326536</v>
+        <v>5440085.0676</v>
       </c>
       <c r="G53" t="n">
-        <v>12141639.55138217</v>
+        <v>-3351011.720617834</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2328,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.691</v>
+        <v>1.68</v>
       </c>
       <c r="C54" t="n">
-        <v>1.69</v>
+        <v>1.694</v>
       </c>
       <c r="D54" t="n">
-        <v>1.691</v>
+        <v>1.694</v>
       </c>
       <c r="E54" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="F54" t="n">
-        <v>487968.7155</v>
+        <v>6562948.9672</v>
       </c>
       <c r="G54" t="n">
-        <v>11653670.83588217</v>
+        <v>3211937.246582166</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2364,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.69</v>
+        <v>1.701</v>
       </c>
       <c r="C55" t="n">
-        <v>1.69</v>
+        <v>1.701</v>
       </c>
       <c r="D55" t="n">
-        <v>1.69</v>
+        <v>1.701</v>
       </c>
       <c r="E55" t="n">
-        <v>1.69</v>
+        <v>1.701</v>
       </c>
       <c r="F55" t="n">
-        <v>20000</v>
+        <v>3822762.4799</v>
       </c>
       <c r="G55" t="n">
-        <v>11653670.83588217</v>
+        <v>7034699.726482166</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2400,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.69</v>
+        <v>1.703</v>
       </c>
       <c r="C56" t="n">
-        <v>1.69</v>
+        <v>1.703</v>
       </c>
       <c r="D56" t="n">
-        <v>1.69</v>
+        <v>1.703</v>
       </c>
       <c r="E56" t="n">
-        <v>1.69</v>
+        <v>1.703</v>
       </c>
       <c r="F56" t="n">
-        <v>9488.909600000001</v>
+        <v>5858202.4927</v>
       </c>
       <c r="G56" t="n">
-        <v>11653670.83588217</v>
+        <v>12892902.21918217</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2436,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.7</v>
+        <v>1.707</v>
       </c>
       <c r="C57" t="n">
-        <v>1.7</v>
+        <v>1.707</v>
       </c>
       <c r="D57" t="n">
-        <v>1.7</v>
+        <v>1.707</v>
       </c>
       <c r="E57" t="n">
-        <v>1.7</v>
+        <v>1.707</v>
       </c>
       <c r="F57" t="n">
-        <v>140292</v>
+        <v>814.0151</v>
       </c>
       <c r="G57" t="n">
-        <v>11793962.83588217</v>
+        <v>12893716.23428217</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2472,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="C58" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="D58" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="E58" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="F58" t="n">
-        <v>65261</v>
+        <v>161674.4471</v>
       </c>
       <c r="G58" t="n">
-        <v>11793962.83588217</v>
+        <v>12732041.78718217</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2508,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.685</v>
+        <v>1.69</v>
       </c>
       <c r="C59" t="n">
-        <v>1.682</v>
+        <v>1.688</v>
       </c>
       <c r="D59" t="n">
-        <v>1.685</v>
+        <v>1.69</v>
       </c>
       <c r="E59" t="n">
-        <v>1.682</v>
+        <v>1.688</v>
       </c>
       <c r="F59" t="n">
-        <v>200000</v>
+        <v>338268.9725</v>
       </c>
       <c r="G59" t="n">
-        <v>11593962.83588217</v>
+        <v>12393772.81468217</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2544,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.7</v>
+        <v>1.688</v>
       </c>
       <c r="C60" t="n">
-        <v>1.705</v>
+        <v>1.69</v>
       </c>
       <c r="D60" t="n">
-        <v>1.705</v>
+        <v>1.69</v>
       </c>
       <c r="E60" t="n">
-        <v>1.7</v>
+        <v>1.688</v>
       </c>
       <c r="F60" t="n">
-        <v>1824.35</v>
+        <v>40000</v>
       </c>
       <c r="G60" t="n">
-        <v>11595787.18588217</v>
+        <v>12433772.81468217</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2580,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.691</v>
+        <v>1.69</v>
       </c>
       <c r="C61" t="n">
-        <v>1.705</v>
+        <v>1.69</v>
       </c>
       <c r="D61" t="n">
-        <v>1.705</v>
+        <v>1.69</v>
       </c>
       <c r="E61" t="n">
         <v>1.69</v>
       </c>
       <c r="F61" t="n">
-        <v>235128.8487</v>
+        <v>120000</v>
       </c>
       <c r="G61" t="n">
-        <v>11595787.18588217</v>
+        <v>12433772.81468217</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2616,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="C62" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="D62" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="E62" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="F62" t="n">
-        <v>45796.4</v>
+        <v>140000</v>
       </c>
       <c r="G62" t="n">
-        <v>11549990.78588217</v>
+        <v>12433772.81468217</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2652,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.682</v>
+        <v>1.69</v>
       </c>
       <c r="C63" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="D63" t="n">
-        <v>1.682</v>
+        <v>1.69</v>
       </c>
       <c r="E63" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="F63" t="n">
-        <v>229840.0082</v>
+        <v>39301.9227</v>
       </c>
       <c r="G63" t="n">
-        <v>11320150.77768217</v>
+        <v>12433772.81468217</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2688,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.699</v>
+        <v>1.69</v>
       </c>
       <c r="C64" t="n">
-        <v>1.699</v>
+        <v>1.69</v>
       </c>
       <c r="D64" t="n">
-        <v>1.699</v>
+        <v>1.69</v>
       </c>
       <c r="E64" t="n">
-        <v>1.699</v>
+        <v>1.69</v>
       </c>
       <c r="F64" t="n">
-        <v>20000</v>
+        <v>110245.3806</v>
       </c>
       <c r="G64" t="n">
-        <v>11340150.77768217</v>
+        <v>12433772.81468217</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2724,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.699</v>
+        <v>1.7</v>
       </c>
       <c r="C65" t="n">
-        <v>1.699</v>
+        <v>1.7</v>
       </c>
       <c r="D65" t="n">
-        <v>1.699</v>
+        <v>1.7</v>
       </c>
       <c r="E65" t="n">
-        <v>1.699</v>
+        <v>1.7</v>
       </c>
       <c r="F65" t="n">
-        <v>20000</v>
+        <v>161674.4471</v>
       </c>
       <c r="G65" t="n">
-        <v>11340150.77768217</v>
+        <v>12595447.26178217</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2760,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.699</v>
+        <v>1.681</v>
       </c>
       <c r="C66" t="n">
-        <v>1.699</v>
+        <v>1.7</v>
       </c>
       <c r="D66" t="n">
-        <v>1.699</v>
+        <v>1.7</v>
       </c>
       <c r="E66" t="n">
-        <v>1.699</v>
+        <v>1.68</v>
       </c>
       <c r="F66" t="n">
-        <v>20000</v>
+        <v>688807.515</v>
       </c>
       <c r="G66" t="n">
-        <v>11340150.77768217</v>
+        <v>12595447.26178217</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2796,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.699</v>
+        <v>1.682</v>
       </c>
       <c r="C67" t="n">
-        <v>1.699</v>
+        <v>1.682</v>
       </c>
       <c r="D67" t="n">
-        <v>1.699</v>
+        <v>1.682</v>
       </c>
       <c r="E67" t="n">
-        <v>1.699</v>
+        <v>1.682</v>
       </c>
       <c r="F67" t="n">
-        <v>5867.6837</v>
+        <v>21189.0607</v>
       </c>
       <c r="G67" t="n">
-        <v>11340150.77768217</v>
+        <v>12574258.20108217</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2832,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.699</v>
+        <v>1.682</v>
       </c>
       <c r="C68" t="n">
-        <v>1.699</v>
+        <v>1.682</v>
       </c>
       <c r="D68" t="n">
-        <v>1.699</v>
+        <v>1.682</v>
       </c>
       <c r="E68" t="n">
-        <v>1.699</v>
+        <v>1.682</v>
       </c>
       <c r="F68" t="n">
-        <v>2454.1631</v>
+        <v>82022</v>
       </c>
       <c r="G68" t="n">
-        <v>11340150.77768217</v>
+        <v>12574258.20108217</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2868,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.699</v>
+        <v>1.682</v>
       </c>
       <c r="C69" t="n">
-        <v>1.699</v>
+        <v>1.682</v>
       </c>
       <c r="D69" t="n">
-        <v>1.699</v>
+        <v>1.682</v>
       </c>
       <c r="E69" t="n">
-        <v>1.699</v>
+        <v>1.682</v>
       </c>
       <c r="F69" t="n">
-        <v>1478</v>
+        <v>186915.1497</v>
       </c>
       <c r="G69" t="n">
-        <v>11340150.77768217</v>
+        <v>12574258.20108217</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2904,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.68</v>
+        <v>1.682</v>
       </c>
       <c r="C70" t="n">
-        <v>1.699</v>
+        <v>1.682</v>
       </c>
       <c r="D70" t="n">
-        <v>1.699</v>
+        <v>1.682</v>
       </c>
       <c r="E70" t="n">
-        <v>1.68</v>
+        <v>1.682</v>
       </c>
       <c r="F70" t="n">
-        <v>1286929.6946</v>
+        <v>25648</v>
       </c>
       <c r="G70" t="n">
-        <v>11340150.77768217</v>
+        <v>12574258.20108217</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2940,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.699</v>
+        <v>1.682</v>
       </c>
       <c r="C71" t="n">
-        <v>1.699</v>
+        <v>1.682</v>
       </c>
       <c r="D71" t="n">
-        <v>1.699</v>
+        <v>1.682</v>
       </c>
       <c r="E71" t="n">
-        <v>1.699</v>
+        <v>1.682</v>
       </c>
       <c r="F71" t="n">
-        <v>10402.7336</v>
+        <v>26700</v>
       </c>
       <c r="G71" t="n">
-        <v>11340150.77768217</v>
+        <v>12574258.20108217</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2976,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.699</v>
+        <v>1.682</v>
       </c>
       <c r="C72" t="n">
-        <v>1.699</v>
+        <v>1.682</v>
       </c>
       <c r="D72" t="n">
-        <v>1.699</v>
+        <v>1.682</v>
       </c>
       <c r="E72" t="n">
-        <v>1.699</v>
+        <v>1.682</v>
       </c>
       <c r="F72" t="n">
-        <v>1961648.2045</v>
+        <v>20000</v>
       </c>
       <c r="G72" t="n">
-        <v>11340150.77768217</v>
+        <v>12574258.20108217</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3024,10 +3006,10 @@
         <v>1.7</v>
       </c>
       <c r="F73" t="n">
-        <v>147619.0165</v>
+        <v>12544.261</v>
       </c>
       <c r="G73" t="n">
-        <v>11487769.79418217</v>
+        <v>12586802.46208217</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3048,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.704</v>
+        <v>1.706</v>
       </c>
       <c r="C74" t="n">
-        <v>1.704</v>
+        <v>1.706</v>
       </c>
       <c r="D74" t="n">
-        <v>1.704</v>
+        <v>1.706</v>
       </c>
       <c r="E74" t="n">
-        <v>1.704</v>
+        <v>1.706</v>
       </c>
       <c r="F74" t="n">
-        <v>1353</v>
+        <v>293.0833</v>
       </c>
       <c r="G74" t="n">
-        <v>11489122.79418217</v>
+        <v>12587095.54538217</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3084,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.704</v>
+        <v>1.691</v>
       </c>
       <c r="C75" t="n">
-        <v>1.707</v>
+        <v>1.691</v>
       </c>
       <c r="D75" t="n">
-        <v>1.707</v>
+        <v>1.691</v>
       </c>
       <c r="E75" t="n">
-        <v>1.704</v>
+        <v>1.691</v>
       </c>
       <c r="F75" t="n">
-        <v>236073.5607</v>
+        <v>295.6831</v>
       </c>
       <c r="G75" t="n">
-        <v>11725196.35488217</v>
+        <v>12586799.86228217</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3120,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.707</v>
+        <v>1.69</v>
       </c>
       <c r="C76" t="n">
-        <v>1.707</v>
+        <v>1.69</v>
       </c>
       <c r="D76" t="n">
-        <v>1.707</v>
+        <v>1.69</v>
       </c>
       <c r="E76" t="n">
-        <v>1.707</v>
+        <v>1.69</v>
       </c>
       <c r="F76" t="n">
-        <v>246527.3576</v>
+        <v>9704.3169</v>
       </c>
       <c r="G76" t="n">
-        <v>11725196.35488217</v>
+        <v>12577095.54538217</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3156,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.707</v>
+        <v>1.683</v>
       </c>
       <c r="C77" t="n">
-        <v>1.709</v>
+        <v>1.67</v>
       </c>
       <c r="D77" t="n">
-        <v>1.709</v>
+        <v>1.683</v>
       </c>
       <c r="E77" t="n">
-        <v>1.707</v>
+        <v>1.67</v>
       </c>
       <c r="F77" t="n">
-        <v>181242.8411</v>
+        <v>488895.994</v>
       </c>
       <c r="G77" t="n">
-        <v>11906439.19598217</v>
+        <v>12088199.55138217</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3192,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.709</v>
+        <v>1.7</v>
       </c>
       <c r="C78" t="n">
-        <v>1.709</v>
+        <v>1.7</v>
       </c>
       <c r="D78" t="n">
-        <v>1.709</v>
+        <v>1.7</v>
       </c>
       <c r="E78" t="n">
-        <v>1.709</v>
+        <v>1.7</v>
       </c>
       <c r="F78" t="n">
-        <v>20621.3411</v>
+        <v>13440</v>
       </c>
       <c r="G78" t="n">
-        <v>11906439.19598217</v>
+        <v>12101639.55138217</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3228,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="C79" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="D79" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="E79" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="F79" t="n">
-        <v>500</v>
+        <v>32081.9774</v>
       </c>
       <c r="G79" t="n">
-        <v>11906939.19598217</v>
+        <v>12101639.55138217</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3264,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.725</v>
+        <v>1.7</v>
       </c>
       <c r="C80" t="n">
-        <v>1.725</v>
+        <v>1.707</v>
       </c>
       <c r="D80" t="n">
-        <v>1.725</v>
+        <v>1.707</v>
       </c>
       <c r="E80" t="n">
-        <v>1.725</v>
+        <v>1.7</v>
       </c>
       <c r="F80" t="n">
-        <v>500</v>
+        <v>40000</v>
       </c>
       <c r="G80" t="n">
-        <v>11907439.19598217</v>
+        <v>12141639.55138217</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3300,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.725</v>
+        <v>1.707</v>
       </c>
       <c r="C81" t="n">
-        <v>1.725</v>
+        <v>1.707</v>
       </c>
       <c r="D81" t="n">
-        <v>1.725</v>
+        <v>1.707</v>
       </c>
       <c r="E81" t="n">
-        <v>1.725</v>
+        <v>1.707</v>
       </c>
       <c r="F81" t="n">
-        <v>872.5892</v>
+        <v>60000</v>
       </c>
       <c r="G81" t="n">
-        <v>11907439.19598217</v>
+        <v>12141639.55138217</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3336,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.726</v>
+        <v>1.707</v>
       </c>
       <c r="C82" t="n">
-        <v>1.726</v>
+        <v>1.707</v>
       </c>
       <c r="D82" t="n">
-        <v>1.726</v>
+        <v>1.707</v>
       </c>
       <c r="E82" t="n">
-        <v>1.726</v>
+        <v>1.707</v>
       </c>
       <c r="F82" t="n">
-        <v>9121.455599999999</v>
+        <v>326536</v>
       </c>
       <c r="G82" t="n">
-        <v>11916560.65158217</v>
+        <v>12141639.55138217</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3372,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.726</v>
+        <v>1.691</v>
       </c>
       <c r="C83" t="n">
-        <v>1.728</v>
+        <v>1.69</v>
       </c>
       <c r="D83" t="n">
-        <v>1.728</v>
+        <v>1.691</v>
       </c>
       <c r="E83" t="n">
-        <v>1.726</v>
+        <v>1.69</v>
       </c>
       <c r="F83" t="n">
-        <v>63588.5517</v>
+        <v>487968.7155</v>
       </c>
       <c r="G83" t="n">
-        <v>11980149.20328217</v>
+        <v>11653670.83588217</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3408,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.728</v>
+        <v>1.69</v>
       </c>
       <c r="C84" t="n">
-        <v>1.728</v>
+        <v>1.69</v>
       </c>
       <c r="D84" t="n">
-        <v>1.729</v>
+        <v>1.69</v>
       </c>
       <c r="E84" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="F84" t="n">
-        <v>133396.853</v>
+        <v>20000</v>
       </c>
       <c r="G84" t="n">
-        <v>11980149.20328217</v>
+        <v>11653670.83588217</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3444,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.728</v>
+        <v>1.69</v>
       </c>
       <c r="C85" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="D85" t="n">
-        <v>1.765</v>
+        <v>1.69</v>
       </c>
       <c r="E85" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="F85" t="n">
-        <v>240000</v>
+        <v>9488.909600000001</v>
       </c>
       <c r="G85" t="n">
-        <v>11740149.20328217</v>
+        <v>11653670.83588217</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3480,28 +3462,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.723</v>
+        <v>1.7</v>
       </c>
       <c r="C86" t="n">
-        <v>1.723</v>
+        <v>1.7</v>
       </c>
       <c r="D86" t="n">
-        <v>1.723</v>
+        <v>1.7</v>
       </c>
       <c r="E86" t="n">
-        <v>1.723</v>
+        <v>1.7</v>
       </c>
       <c r="F86" t="n">
-        <v>60000</v>
+        <v>140292</v>
       </c>
       <c r="G86" t="n">
-        <v>11800149.20328217</v>
+        <v>11793962.83588217</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3516,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.725</v>
+        <v>1.7</v>
       </c>
       <c r="C87" t="n">
-        <v>1.725</v>
+        <v>1.7</v>
       </c>
       <c r="D87" t="n">
-        <v>1.725</v>
+        <v>1.7</v>
       </c>
       <c r="E87" t="n">
-        <v>1.725</v>
+        <v>1.7</v>
       </c>
       <c r="F87" t="n">
-        <v>25151.9</v>
+        <v>65261</v>
       </c>
       <c r="G87" t="n">
-        <v>11825301.10328217</v>
+        <v>11793962.83588217</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3552,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.724</v>
+        <v>1.685</v>
       </c>
       <c r="C88" t="n">
-        <v>1.722</v>
+        <v>1.682</v>
       </c>
       <c r="D88" t="n">
-        <v>1.724</v>
+        <v>1.685</v>
       </c>
       <c r="E88" t="n">
-        <v>1.722</v>
+        <v>1.682</v>
       </c>
       <c r="F88" t="n">
-        <v>49160.045</v>
+        <v>200000</v>
       </c>
       <c r="G88" t="n">
-        <v>11776141.05828217</v>
+        <v>11593962.83588217</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3588,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="C89" t="n">
-        <v>1.75</v>
+        <v>1.705</v>
       </c>
       <c r="D89" t="n">
-        <v>1.75</v>
+        <v>1.705</v>
       </c>
       <c r="E89" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="F89" t="n">
-        <v>554.8813</v>
+        <v>1824.35</v>
       </c>
       <c r="G89" t="n">
-        <v>11776695.93958217</v>
+        <v>11595787.18588217</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3624,28 +3606,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.73</v>
+        <v>1.691</v>
       </c>
       <c r="C90" t="n">
-        <v>1.714</v>
+        <v>1.705</v>
       </c>
       <c r="D90" t="n">
-        <v>1.73</v>
+        <v>1.705</v>
       </c>
       <c r="E90" t="n">
-        <v>1.714</v>
+        <v>1.69</v>
       </c>
       <c r="F90" t="n">
-        <v>100000</v>
+        <v>235128.8487</v>
       </c>
       <c r="G90" t="n">
-        <v>11676695.93958217</v>
+        <v>11595787.18588217</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3660,28 +3642,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.721</v>
+        <v>1.7</v>
       </c>
       <c r="C91" t="n">
-        <v>1.721</v>
+        <v>1.7</v>
       </c>
       <c r="D91" t="n">
-        <v>1.721</v>
+        <v>1.7</v>
       </c>
       <c r="E91" t="n">
-        <v>1.721</v>
+        <v>1.7</v>
       </c>
       <c r="F91" t="n">
-        <v>59986.7666</v>
+        <v>45796.4</v>
       </c>
       <c r="G91" t="n">
-        <v>11736682.70618217</v>
+        <v>11549990.78588217</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3696,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.721</v>
+        <v>1.682</v>
       </c>
       <c r="C92" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="D92" t="n">
-        <v>1.747</v>
+        <v>1.682</v>
       </c>
       <c r="E92" t="n">
-        <v>1.721</v>
+        <v>1.68</v>
       </c>
       <c r="F92" t="n">
-        <v>204257.0561</v>
+        <v>229840.0082</v>
       </c>
       <c r="G92" t="n">
-        <v>11940939.76228217</v>
+        <v>11320150.77768217</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3732,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.745</v>
+        <v>1.699</v>
       </c>
       <c r="C93" t="n">
-        <v>1.745</v>
+        <v>1.699</v>
       </c>
       <c r="D93" t="n">
-        <v>1.745</v>
+        <v>1.699</v>
       </c>
       <c r="E93" t="n">
-        <v>1.745</v>
+        <v>1.699</v>
       </c>
       <c r="F93" t="n">
-        <v>300</v>
+        <v>20000</v>
       </c>
       <c r="G93" t="n">
-        <v>11941239.76228217</v>
+        <v>11340150.77768217</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3768,28 +3750,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.739</v>
+        <v>1.699</v>
       </c>
       <c r="C94" t="n">
-        <v>1.73</v>
+        <v>1.699</v>
       </c>
       <c r="D94" t="n">
-        <v>1.75</v>
+        <v>1.699</v>
       </c>
       <c r="E94" t="n">
-        <v>1.715</v>
+        <v>1.699</v>
       </c>
       <c r="F94" t="n">
-        <v>1242087.9186</v>
+        <v>20000</v>
       </c>
       <c r="G94" t="n">
-        <v>10699151.84368217</v>
+        <v>11340150.77768217</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3804,28 +3786,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.759</v>
+        <v>1.699</v>
       </c>
       <c r="C95" t="n">
-        <v>1.715</v>
+        <v>1.699</v>
       </c>
       <c r="D95" t="n">
-        <v>1.759</v>
+        <v>1.699</v>
       </c>
       <c r="E95" t="n">
-        <v>1.715</v>
+        <v>1.699</v>
       </c>
       <c r="F95" t="n">
-        <v>1019369.471</v>
+        <v>20000</v>
       </c>
       <c r="G95" t="n">
-        <v>9679782.372682165</v>
+        <v>11340150.77768217</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3840,31 +3822,35 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.73</v>
+        <v>1.699</v>
       </c>
       <c r="C96" t="n">
-        <v>1.73</v>
+        <v>1.699</v>
       </c>
       <c r="D96" t="n">
-        <v>1.73</v>
+        <v>1.699</v>
       </c>
       <c r="E96" t="n">
-        <v>1.73</v>
+        <v>1.699</v>
       </c>
       <c r="F96" t="n">
-        <v>346202.261</v>
+        <v>5867.6837</v>
       </c>
       <c r="G96" t="n">
-        <v>10025984.63368217</v>
+        <v>11340150.77768217</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1.699</v>
+      </c>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
@@ -3876,32 +3862,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.73</v>
+        <v>1.699</v>
       </c>
       <c r="C97" t="n">
-        <v>1.73</v>
+        <v>1.699</v>
       </c>
       <c r="D97" t="n">
-        <v>1.73</v>
+        <v>1.699</v>
       </c>
       <c r="E97" t="n">
-        <v>1.73</v>
+        <v>1.699</v>
       </c>
       <c r="F97" t="n">
-        <v>34858.6475</v>
+        <v>2454.1631</v>
       </c>
       <c r="G97" t="n">
-        <v>10025984.63368217</v>
+        <v>11340150.77768217</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3912,32 +3906,40 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.73</v>
+        <v>1.699</v>
       </c>
       <c r="C98" t="n">
-        <v>1.73</v>
+        <v>1.699</v>
       </c>
       <c r="D98" t="n">
-        <v>1.73</v>
+        <v>1.699</v>
       </c>
       <c r="E98" t="n">
-        <v>1.73</v>
+        <v>1.699</v>
       </c>
       <c r="F98" t="n">
-        <v>15871.4444</v>
+        <v>1478</v>
       </c>
       <c r="G98" t="n">
-        <v>10025984.63368217</v>
+        <v>11340150.77768217</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3948,32 +3950,40 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="C99" t="n">
-        <v>1.73</v>
+        <v>1.699</v>
       </c>
       <c r="D99" t="n">
-        <v>1.73</v>
+        <v>1.699</v>
       </c>
       <c r="E99" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="F99" t="n">
-        <v>204442.9114</v>
+        <v>1286929.6946</v>
       </c>
       <c r="G99" t="n">
-        <v>10025984.63368217</v>
+        <v>11340150.77768217</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3984,32 +3994,40 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.722</v>
+        <v>1.699</v>
       </c>
       <c r="C100" t="n">
-        <v>1.72</v>
+        <v>1.699</v>
       </c>
       <c r="D100" t="n">
-        <v>1.722</v>
+        <v>1.699</v>
       </c>
       <c r="E100" t="n">
-        <v>1.72</v>
+        <v>1.699</v>
       </c>
       <c r="F100" t="n">
-        <v>34509.2145</v>
+        <v>10402.7336</v>
       </c>
       <c r="G100" t="n">
-        <v>9991475.419182165</v>
+        <v>11340150.77768217</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4020,32 +4038,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.73</v>
+        <v>1.699</v>
       </c>
       <c r="C101" t="n">
-        <v>1.73</v>
+        <v>1.699</v>
       </c>
       <c r="D101" t="n">
-        <v>1.73</v>
+        <v>1.699</v>
       </c>
       <c r="E101" t="n">
-        <v>1.73</v>
+        <v>1.699</v>
       </c>
       <c r="F101" t="n">
-        <v>35753.5674</v>
+        <v>1961648.2045</v>
       </c>
       <c r="G101" t="n">
-        <v>10027228.98658216</v>
+        <v>11340150.77768217</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4056,32 +4080,40 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.729</v>
+        <v>1.7</v>
       </c>
       <c r="C102" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="D102" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="E102" t="n">
-        <v>1.729</v>
+        <v>1.7</v>
       </c>
       <c r="F102" t="n">
-        <v>100000</v>
+        <v>147619.0165</v>
       </c>
       <c r="G102" t="n">
-        <v>10027228.98658216</v>
+        <v>11487769.79418217</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4092,32 +4124,38 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.72</v>
+        <v>1.704</v>
       </c>
       <c r="C103" t="n">
-        <v>1.72</v>
+        <v>1.704</v>
       </c>
       <c r="D103" t="n">
-        <v>1.72</v>
+        <v>1.704</v>
       </c>
       <c r="E103" t="n">
-        <v>1.72</v>
+        <v>1.704</v>
       </c>
       <c r="F103" t="n">
-        <v>18003.5398</v>
+        <v>1353</v>
       </c>
       <c r="G103" t="n">
-        <v>10009225.44678216</v>
+        <v>11489122.79418217</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4128,32 +4166,38 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.727</v>
+        <v>1.704</v>
       </c>
       <c r="C104" t="n">
-        <v>1.721</v>
+        <v>1.707</v>
       </c>
       <c r="D104" t="n">
-        <v>1.727</v>
+        <v>1.707</v>
       </c>
       <c r="E104" t="n">
-        <v>1.721</v>
+        <v>1.704</v>
       </c>
       <c r="F104" t="n">
-        <v>3500</v>
+        <v>236073.5607</v>
       </c>
       <c r="G104" t="n">
-        <v>10012725.44678216</v>
+        <v>11725196.35488217</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4164,32 +4208,38 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.721</v>
+        <v>1.707</v>
       </c>
       <c r="C105" t="n">
-        <v>1.711</v>
+        <v>1.707</v>
       </c>
       <c r="D105" t="n">
-        <v>1.721</v>
+        <v>1.707</v>
       </c>
       <c r="E105" t="n">
-        <v>1.711</v>
+        <v>1.707</v>
       </c>
       <c r="F105" t="n">
-        <v>280000</v>
+        <v>246527.3576</v>
       </c>
       <c r="G105" t="n">
-        <v>9732725.446782164</v>
+        <v>11725196.35488217</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4200,32 +4250,38 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.711</v>
+        <v>1.707</v>
       </c>
       <c r="C106" t="n">
-        <v>1.749</v>
+        <v>1.709</v>
       </c>
       <c r="D106" t="n">
-        <v>1.75</v>
+        <v>1.709</v>
       </c>
       <c r="E106" t="n">
-        <v>1.711</v>
+        <v>1.707</v>
       </c>
       <c r="F106" t="n">
-        <v>113185.2229</v>
+        <v>181242.8411</v>
       </c>
       <c r="G106" t="n">
-        <v>9845910.669682164</v>
+        <v>11906439.19598217</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4236,32 +4292,38 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.727</v>
+        <v>1.709</v>
       </c>
       <c r="C107" t="n">
-        <v>1.732</v>
+        <v>1.709</v>
       </c>
       <c r="D107" t="n">
-        <v>1.732</v>
+        <v>1.709</v>
       </c>
       <c r="E107" t="n">
-        <v>1.727</v>
+        <v>1.709</v>
       </c>
       <c r="F107" t="n">
-        <v>60000</v>
+        <v>20621.3411</v>
       </c>
       <c r="G107" t="n">
-        <v>9785910.669682164</v>
+        <v>11906439.19598217</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4272,32 +4334,38 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.732</v>
+        <v>1.72</v>
       </c>
       <c r="C108" t="n">
-        <v>1.738</v>
+        <v>1.72</v>
       </c>
       <c r="D108" t="n">
-        <v>1.738</v>
+        <v>1.72</v>
       </c>
       <c r="E108" t="n">
-        <v>1.732</v>
+        <v>1.72</v>
       </c>
       <c r="F108" t="n">
-        <v>59631.2832</v>
+        <v>500</v>
       </c>
       <c r="G108" t="n">
-        <v>9845541.952882163</v>
+        <v>11906939.19598217</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4308,32 +4376,38 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.712</v>
+        <v>1.725</v>
       </c>
       <c r="C109" t="n">
-        <v>1.712</v>
+        <v>1.725</v>
       </c>
       <c r="D109" t="n">
-        <v>1.712</v>
+        <v>1.725</v>
       </c>
       <c r="E109" t="n">
-        <v>1.712</v>
+        <v>1.725</v>
       </c>
       <c r="F109" t="n">
-        <v>9374.5861</v>
+        <v>500</v>
       </c>
       <c r="G109" t="n">
-        <v>9836167.366782162</v>
+        <v>11907439.19598217</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4344,36 +4418,1212 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="F110" t="n">
+        <v>872.5892</v>
+      </c>
+      <c r="G110" t="n">
+        <v>11907439.19598217</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="F111" t="n">
+        <v>9121.455599999999</v>
+      </c>
+      <c r="G111" t="n">
+        <v>11916560.65158217</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="F112" t="n">
+        <v>63588.5517</v>
+      </c>
+      <c r="G112" t="n">
+        <v>11980149.20328217</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F113" t="n">
+        <v>133396.853</v>
+      </c>
+      <c r="G113" t="n">
+        <v>11980149.20328217</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F114" t="n">
+        <v>240000</v>
+      </c>
+      <c r="G114" t="n">
+        <v>11740149.20328217</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="F115" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G115" t="n">
+        <v>11800149.20328217</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="F116" t="n">
+        <v>25151.9</v>
+      </c>
+      <c r="G116" t="n">
+        <v>11825301.10328217</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.724</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.724</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="F117" t="n">
+        <v>49160.045</v>
+      </c>
+      <c r="G117" t="n">
+        <v>11776141.05828217</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F118" t="n">
+        <v>554.8813</v>
+      </c>
+      <c r="G118" t="n">
+        <v>11776695.93958217</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="F119" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G119" t="n">
+        <v>11676695.93958217</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.721</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.721</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.721</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.721</v>
+      </c>
+      <c r="F120" t="n">
+        <v>59986.7666</v>
+      </c>
+      <c r="G120" t="n">
+        <v>11736682.70618217</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.721</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.721</v>
+      </c>
+      <c r="F121" t="n">
+        <v>204257.0561</v>
+      </c>
+      <c r="G121" t="n">
+        <v>11940939.76228217</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="F122" t="n">
+        <v>300</v>
+      </c>
+      <c r="G122" t="n">
+        <v>11941239.76228217</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1242087.9186</v>
+      </c>
+      <c r="G123" t="n">
+        <v>10699151.84368217</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1019369.471</v>
+      </c>
+      <c r="G124" t="n">
+        <v>9679782.372682165</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F125" t="n">
+        <v>346202.261</v>
+      </c>
+      <c r="G125" t="n">
+        <v>10025984.63368217</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F126" t="n">
+        <v>34858.6475</v>
+      </c>
+      <c r="G126" t="n">
+        <v>10025984.63368217</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F127" t="n">
+        <v>15871.4444</v>
+      </c>
+      <c r="G127" t="n">
+        <v>10025984.63368217</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F128" t="n">
+        <v>204442.9114</v>
+      </c>
+      <c r="G128" t="n">
+        <v>10025984.63368217</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F129" t="n">
+        <v>34509.2145</v>
+      </c>
+      <c r="G129" t="n">
+        <v>9991475.419182165</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F130" t="n">
+        <v>35753.5674</v>
+      </c>
+      <c r="G130" t="n">
+        <v>10027228.98658216</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="F131" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G131" t="n">
+        <v>10027228.98658216</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1.01324602707475</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F132" t="n">
+        <v>18003.5398</v>
+      </c>
+      <c r="G132" t="n">
+        <v>10009225.44678216</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.727</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.721</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.727</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.721</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G133" t="n">
+        <v>10012725.44678216</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.721</v>
+      </c>
+      <c r="C134" t="n">
         <v>1.711</v>
       </c>
-      <c r="C110" t="n">
+      <c r="D134" t="n">
+        <v>1.721</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.711</v>
+      </c>
+      <c r="F134" t="n">
+        <v>280000</v>
+      </c>
+      <c r="G134" t="n">
+        <v>9732725.446782164</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.711</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.711</v>
+      </c>
+      <c r="F135" t="n">
+        <v>113185.2229</v>
+      </c>
+      <c r="G135" t="n">
+        <v>9845910.669682164</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.727</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.727</v>
+      </c>
+      <c r="F136" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G136" t="n">
+        <v>9785910.669682164</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="F137" t="n">
+        <v>59631.2832</v>
+      </c>
+      <c r="G137" t="n">
+        <v>9845541.952882163</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="F138" t="n">
+        <v>9374.5861</v>
+      </c>
+      <c r="G138" t="n">
+        <v>9836167.366782162</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.711</v>
+      </c>
+      <c r="C139" t="n">
         <v>1.715</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D139" t="n">
         <v>1.715</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E139" t="n">
         <v>1.711</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F139" t="n">
         <v>21000</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G139" t="n">
         <v>9857167.366782162</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest MXC.xlsx
+++ b/BackTest/2020-01-15 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>1378717.951469876</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>1378423.487369876</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>6378423.487369876</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,19 @@
         <v>5604433.893469878</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>1.682</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.682</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1084,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1121,23 @@
         <v>6166676.918469879</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>1.69</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1164,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1197,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1230,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1263,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1296,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1329,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1362,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1395,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1428,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1459,19 @@
         <v>5671853.454882166</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>1.707</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.707</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1496,23 @@
         <v>5672153.454882166</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>1.682</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1537,23 @@
         <v>5653078.369982166</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>1.707</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1580,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1613,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1646,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1679,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1712,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1745,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1778,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1811,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1844,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1877,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1910,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1943,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1976,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2009,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2042,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2075,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2108,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2141,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2174,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2207,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2240,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2273,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2306,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2339,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2372,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2405,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2438,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2471,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2504,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2537,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2570,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2603,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2634,19 @@
         <v>12574258.20108217</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
+        <v>1.7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.7</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2671,23 @@
         <v>12574258.20108217</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>1.682</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2712,23 @@
         <v>12574258.20108217</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>1.682</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2755,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2788,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2821,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2854,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2887,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2920,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2953,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2986,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +3019,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3052,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3085,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3118,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3151,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3184,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3215,19 @@
         <v>11653670.83588217</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>1.69</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.69</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3252,23 @@
         <v>11653670.83588217</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>1.69</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3293,23 @@
         <v>11793962.83588217</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>1.69</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3336,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3369,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3402,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3435,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3468,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3499,21 @@
         <v>11320150.77768217</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3540,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3577,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3614,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,22 +3649,19 @@
         <v>11340150.77768217</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="K96" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3880,26 +3686,19 @@
         <v>11340150.77768217</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="K97" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3924,26 +3723,19 @@
         <v>11340150.77768217</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="K98" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3968,26 +3760,19 @@
         <v>11340150.77768217</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="K99" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4012,26 +3797,21 @@
         <v>11340150.77768217</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
         <v>1.699</v>
       </c>
-      <c r="K100" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4056,24 +3836,21 @@
         <v>11340150.77768217</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1.699</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4098,26 +3875,19 @@
         <v>11487769.79418217</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="K102" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L102" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4144,22 +3914,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4186,22 +3951,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4228,22 +3988,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4270,22 +4025,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4310,24 +4060,21 @@
         <v>11906439.19598217</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1.709</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4352,24 +4099,21 @@
         <v>11906939.19598217</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1.709</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4394,24 +4138,21 @@
         <v>11907439.19598217</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4436,24 +4177,21 @@
         <v>11907439.19598217</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1.725</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4478,24 +4216,21 @@
         <v>11916560.65158217</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1.725</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4520,24 +4255,21 @@
         <v>11980149.20328217</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1.726</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4564,22 +4296,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4606,22 +4333,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4648,22 +4370,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4688,24 +4405,21 @@
         <v>11825301.10328217</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1.723</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4730,24 +4444,21 @@
         <v>11776141.05828217</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1.725</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4772,24 +4483,21 @@
         <v>11776695.93958217</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1.722</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4816,22 +4524,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4858,22 +4561,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4900,22 +4598,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4942,22 +4635,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4984,22 +4672,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5026,22 +4709,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5068,22 +4746,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5110,22 +4783,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5152,22 +4820,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5194,22 +4857,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5234,24 +4892,17 @@
         <v>9991475.419182165</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5278,22 +4929,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5318,24 +4960,15 @@
         <v>10027228.98658216</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1.01324602707475</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5360,18 +4993,15 @@
         <v>10009225.44678216</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5396,18 +5026,15 @@
         <v>10012725.44678216</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5432,18 +5059,15 @@
         <v>9732725.446782164</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5470,16 +5094,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5504,18 +5125,21 @@
         <v>9785910.669682164</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>1.749</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5542,16 +5166,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5576,18 +5201,19 @@
         <v>9836167.366782162</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5614,18 +5240,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest MXC.xlsx
+++ b/BackTest/2020-01-15 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>1378717.951469876</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1378423.487369876</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>6378423.487369876</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>5604433.893469878</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>1.682</v>
@@ -1082,9 +1082,11 @@
         <v>5921429.918469879</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.682</v>
+      </c>
       <c r="J21" t="n">
         <v>1.682</v>
       </c>
@@ -1121,7 +1123,7 @@
         <v>6166676.918469879</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>1.69</v>
@@ -1162,10 +1164,14 @@
         <v>5966676.918469879</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.727</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.727</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1198,8 +1204,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1.727</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1231,8 +1243,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1.727</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1360,10 +1378,14 @@
         <v>5949189.953082167</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.683</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1396,8 +1418,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1426,11 +1454,19 @@
         <v>5949489.953082167</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1459,7 +1495,7 @@
         <v>5671853.454882166</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>1.707</v>
@@ -1496,7 +1532,7 @@
         <v>5672153.454882166</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>1.682</v>
@@ -1537,11 +1573,9 @@
         <v>5653078.369982166</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.707</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>1.707</v>
       </c>
@@ -2634,14 +2668,10 @@
         <v>12574258.20108217</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
@@ -2671,19 +2701,11 @@
         <v>12574258.20108217</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2712,19 +2734,11 @@
         <v>12574258.20108217</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3215,14 +3229,10 @@
         <v>11653670.83588217</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
@@ -3252,19 +3262,11 @@
         <v>11653670.83588217</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3293,19 +3295,11 @@
         <v>11793962.83588217</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3499,17 +3493,11 @@
         <v>11320150.77768217</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3542,11 +3530,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3579,11 +3563,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3616,11 +3596,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3653,11 +3629,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3690,11 +3662,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3727,11 +3695,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3764,11 +3728,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3797,17 +3757,11 @@
         <v>11340150.77768217</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1.699</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3836,17 +3790,11 @@
         <v>11340150.77768217</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1.699</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3879,11 +3827,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3860,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3953,11 +3893,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3990,11 +3926,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4027,11 +3959,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4060,17 +3988,11 @@
         <v>11906439.19598217</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1.709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4099,17 +4021,11 @@
         <v>11906939.19598217</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1.709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4138,17 +4054,11 @@
         <v>11907439.19598217</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4177,17 +4087,11 @@
         <v>11907439.19598217</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1.725</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4216,17 +4120,11 @@
         <v>11916560.65158217</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1.725</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4255,17 +4153,11 @@
         <v>11980149.20328217</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1.726</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4298,11 +4190,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4335,11 +4223,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4372,11 +4256,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4405,17 +4285,11 @@
         <v>11825301.10328217</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1.723</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4444,17 +4318,11 @@
         <v>11776141.05828217</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1.725</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4483,17 +4351,11 @@
         <v>11776695.93958217</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1.722</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4526,11 +4388,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4563,11 +4421,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4600,11 +4454,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4637,11 +4487,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4674,11 +4520,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4711,11 +4553,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4748,11 +4586,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4785,11 +4619,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4822,11 +4652,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4859,11 +4685,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4892,16 +4714,14 @@
         <v>9991475.419182165</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
       <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
@@ -4927,7 +4747,7 @@
         <v>10027228.98658216</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4960,7 +4780,7 @@
         <v>10027228.98658216</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4993,7 +4813,7 @@
         <v>10009225.44678216</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5026,7 +4846,7 @@
         <v>10012725.44678216</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5059,7 +4879,7 @@
         <v>9732725.446782164</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5092,7 +4912,7 @@
         <v>9845910.669682164</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5127,15 +4947,9 @@
       <c r="H136" t="n">
         <v>2</v>
       </c>
-      <c r="I136" t="n">
-        <v>1.749</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5164,15 +4978,11 @@
         <v>9845541.952882163</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5201,15 +5011,11 @@
         <v>9836167.366782162</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5238,21 +5044,17 @@
         <v>9857167.366782162</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
       <c r="M139" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest MXC.xlsx
+++ b/BackTest/2020-01-15 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,10 +484,14 @@
         <v>1378717.951469876</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.709</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>1378717.951469876</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>1378423.487369876</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>6378423.487369876</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.698</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.698</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -619,8 +643,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1.698</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +682,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1.698</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -1045,14 +1081,10 @@
         <v>5604433.893469878</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.682</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
@@ -1082,19 +1114,11 @@
         <v>5921429.918469879</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1123,19 +1147,11 @@
         <v>6166676.918469879</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1164,14 +1180,10 @@
         <v>5966676.918469879</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.727</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.727</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1204,14 +1216,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>1.727</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1243,14 +1249,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>1.727</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1378,14 +1378,10 @@
         <v>5949189.953082167</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.683</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.683</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1418,14 +1414,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>1.683</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1454,19 +1444,11 @@
         <v>5949489.953082167</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1.683</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.683</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1495,14 +1477,10 @@
         <v>5671853.454882166</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.707</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
@@ -1532,19 +1510,11 @@
         <v>5672153.454882166</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1576,14 +1546,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -4087,7 +4051,7 @@
         <v>11907439.19598217</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4120,7 +4084,7 @@
         <v>11916560.65158217</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4153,7 +4117,7 @@
         <v>11980149.20328217</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4186,7 +4150,7 @@
         <v>11980149.20328217</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4219,7 +4183,7 @@
         <v>11740149.20328217</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4252,7 +4216,7 @@
         <v>11800149.20328217</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4285,7 +4249,7 @@
         <v>11825301.10328217</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4318,7 +4282,7 @@
         <v>11776141.05828217</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4351,7 +4315,7 @@
         <v>11776695.93958217</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4384,7 +4348,7 @@
         <v>11676695.93958217</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4417,7 +4381,7 @@
         <v>11736682.70618217</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4450,7 +4414,7 @@
         <v>11940939.76228217</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4483,7 +4447,7 @@
         <v>11941239.76228217</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4516,7 +4480,7 @@
         <v>10699151.84368217</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4549,7 +4513,7 @@
         <v>9679782.372682165</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4582,7 +4546,7 @@
         <v>10025984.63368217</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4615,7 +4579,7 @@
         <v>10025984.63368217</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4648,7 +4612,7 @@
         <v>10025984.63368217</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4747,7 +4711,7 @@
         <v>10027228.98658216</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4846,7 +4810,7 @@
         <v>10012725.44678216</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4879,7 +4843,7 @@
         <v>9732725.446782164</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4912,7 +4876,7 @@
         <v>9845910.669682164</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4945,7 +4909,7 @@
         <v>9785910.669682164</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4978,7 +4942,7 @@
         <v>9845541.952882163</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5011,7 +4975,7 @@
         <v>9836167.366782162</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5044,7 +5008,7 @@
         <v>9857167.366782162</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5055,6 +5019,6 @@
       <c r="M139" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest MXC.xlsx
+++ b/BackTest/2020-01-15 BackTest MXC.xlsx
@@ -451,7 +451,7 @@
         <v>1721071.674069876</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -640,9 +640,11 @@
         <v>6398423.487369876</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.705</v>
+      </c>
       <c r="J7" t="n">
         <v>1.698</v>
       </c>
@@ -1114,10 +1116,14 @@
         <v>5921429.918469879</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.682</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1147,11 +1153,19 @@
         <v>6166676.918469879</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1183,8 +1197,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -4051,7 +4071,7 @@
         <v>11907439.19598217</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4084,7 +4104,7 @@
         <v>11916560.65158217</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4117,7 +4137,7 @@
         <v>11980149.20328217</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4150,7 +4170,7 @@
         <v>11980149.20328217</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4183,7 +4203,7 @@
         <v>11740149.20328217</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4216,7 +4236,7 @@
         <v>11800149.20328217</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4249,7 +4269,7 @@
         <v>11825301.10328217</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4282,7 +4302,7 @@
         <v>11776141.05828217</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4315,7 +4335,7 @@
         <v>11776695.93958217</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4381,7 +4401,7 @@
         <v>11736682.70618217</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4414,7 +4434,7 @@
         <v>11940939.76228217</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4447,7 +4467,7 @@
         <v>11941239.76228217</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4612,7 +4632,7 @@
         <v>10025984.63368217</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4645,7 +4665,7 @@
         <v>10025984.63368217</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4711,7 +4731,7 @@
         <v>10027228.98658216</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4810,7 +4830,7 @@
         <v>10012725.44678216</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4843,7 +4863,7 @@
         <v>9732725.446782164</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4909,7 +4929,7 @@
         <v>9785910.669682164</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4942,7 +4962,7 @@
         <v>9845541.952882163</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4975,7 +4995,7 @@
         <v>9836167.366782162</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5008,7 +5028,7 @@
         <v>9857167.366782162</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>

--- a/BackTest/2020-01-15 BackTest MXC.xlsx
+++ b/BackTest/2020-01-15 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:L139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>15176.2523</v>
       </c>
       <c r="G2" t="n">
-        <v>1721071.674069876</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>342353.7226</v>
       </c>
       <c r="G3" t="n">
-        <v>1378717.951469876</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +503,15 @@
         <v>104394.352</v>
       </c>
       <c r="G4" t="n">
-        <v>1378717.951469876</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +533,15 @@
         <v>294.4641</v>
       </c>
       <c r="G5" t="n">
-        <v>1378423.487369876</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +563,19 @@
         <v>5000000</v>
       </c>
       <c r="G6" t="n">
-        <v>6378423.487369876</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>1.698</v>
       </c>
       <c r="I6" t="n">
         <v>1.698</v>
       </c>
-      <c r="J6" t="n">
-        <v>1.698</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +597,21 @@
         <v>20000</v>
       </c>
       <c r="G7" t="n">
-        <v>6398423.487369876</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>1.705</v>
-      </c>
-      <c r="J7" t="n">
         <v>1.698</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,24 +633,21 @@
         <v>100000</v>
       </c>
       <c r="G8" t="n">
-        <v>6398423.487369876</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
         <v>1.698</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -717,18 +669,15 @@
         <v>540000</v>
       </c>
       <c r="G9" t="n">
-        <v>6938423.487369876</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -750,18 +699,15 @@
         <v>75376.5385</v>
       </c>
       <c r="G10" t="n">
-        <v>6863046.948869877</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -783,18 +729,15 @@
         <v>191087.5576</v>
       </c>
       <c r="G11" t="n">
-        <v>6671959.391269877</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +759,15 @@
         <v>240569.8667</v>
       </c>
       <c r="G12" t="n">
-        <v>6912529.257969877</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -849,18 +789,15 @@
         <v>207502.9465</v>
       </c>
       <c r="G13" t="n">
-        <v>6912529.257969877</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,18 +819,15 @@
         <v>650</v>
       </c>
       <c r="G14" t="n">
-        <v>6913179.257969877</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -915,18 +849,15 @@
         <v>2233.1154</v>
       </c>
       <c r="G15" t="n">
-        <v>6910946.142569877</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -948,18 +879,15 @@
         <v>433285.1254</v>
       </c>
       <c r="G16" t="n">
-        <v>7344231.267969877</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -981,18 +909,15 @@
         <v>130852.0332</v>
       </c>
       <c r="G17" t="n">
-        <v>7475083.301169878</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1014,18 +939,15 @@
         <v>1728726.1077</v>
       </c>
       <c r="G18" t="n">
-        <v>5746357.193469878</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1047,18 +969,15 @@
         <v>141923.3</v>
       </c>
       <c r="G19" t="n">
-        <v>5604433.893469878</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1080,18 +999,15 @@
         <v>230804.3614</v>
       </c>
       <c r="G20" t="n">
-        <v>5604433.893469878</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,22 +1029,15 @@
         <v>316996.025</v>
       </c>
       <c r="G21" t="n">
-        <v>5921429.918469879</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1150,26 +1059,15 @@
         <v>245247</v>
       </c>
       <c r="G22" t="n">
-        <v>6166676.918469879</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1191,24 +1089,15 @@
         <v>200000</v>
       </c>
       <c r="G23" t="n">
-        <v>5966676.918469879</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>1.682</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1230,18 +1119,15 @@
         <v>103983.0310122879</v>
       </c>
       <c r="G24" t="n">
-        <v>6070659.949482167</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1263,18 +1149,15 @@
         <v>100000</v>
       </c>
       <c r="G25" t="n">
-        <v>5970659.949482167</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1296,18 +1179,15 @@
         <v>239462.477</v>
       </c>
       <c r="G26" t="n">
-        <v>5970659.949482167</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1329,18 +1209,15 @@
         <v>19269.0308</v>
       </c>
       <c r="G27" t="n">
-        <v>5989928.980282167</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1362,18 +1239,15 @@
         <v>40739.0272</v>
       </c>
       <c r="G28" t="n">
-        <v>5949189.953082167</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1395,18 +1269,15 @@
         <v>24237.2406</v>
       </c>
       <c r="G29" t="n">
-        <v>5949189.953082167</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1428,18 +1299,15 @@
         <v>11294.8773</v>
       </c>
       <c r="G30" t="n">
-        <v>5949189.953082167</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1461,18 +1329,15 @@
         <v>300</v>
       </c>
       <c r="G31" t="n">
-        <v>5949489.953082167</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1494,18 +1359,15 @@
         <v>277636.4982</v>
       </c>
       <c r="G32" t="n">
-        <v>5671853.454882166</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1527,18 +1389,15 @@
         <v>300</v>
       </c>
       <c r="G33" t="n">
-        <v>5672153.454882166</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1560,18 +1419,15 @@
         <v>19075.0849</v>
       </c>
       <c r="G34" t="n">
-        <v>5653078.369982166</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1593,18 +1449,15 @@
         <v>300</v>
       </c>
       <c r="G35" t="n">
-        <v>5653378.369982166</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1626,18 +1479,15 @@
         <v>346941</v>
       </c>
       <c r="G36" t="n">
-        <v>5306437.369982166</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1659,18 +1509,15 @@
         <v>300</v>
       </c>
       <c r="G37" t="n">
-        <v>5306737.369982166</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1692,18 +1539,15 @@
         <v>803484.284</v>
       </c>
       <c r="G38" t="n">
-        <v>4503253.085982166</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1725,18 +1569,15 @@
         <v>443761.4997</v>
       </c>
       <c r="G39" t="n">
-        <v>4059491.586282166</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1758,18 +1599,15 @@
         <v>120000</v>
       </c>
       <c r="G40" t="n">
-        <v>4179491.586282166</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1791,18 +1629,15 @@
         <v>534703</v>
       </c>
       <c r="G41" t="n">
-        <v>4714194.586282166</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1824,18 +1659,15 @@
         <v>20000</v>
       </c>
       <c r="G42" t="n">
-        <v>4694194.586282166</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1857,18 +1689,15 @@
         <v>901732.7622</v>
       </c>
       <c r="G43" t="n">
-        <v>3792461.824082166</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1890,18 +1719,15 @@
         <v>2768877.2987</v>
       </c>
       <c r="G44" t="n">
-        <v>3792461.824082166</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1923,18 +1749,15 @@
         <v>849124.7352</v>
       </c>
       <c r="G45" t="n">
-        <v>3792461.824082166</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1956,18 +1779,15 @@
         <v>90400</v>
       </c>
       <c r="G46" t="n">
-        <v>3882861.824082166</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1989,18 +1809,15 @@
         <v>39436.5633</v>
       </c>
       <c r="G47" t="n">
-        <v>3843425.260782166</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2022,18 +1839,15 @@
         <v>10000</v>
       </c>
       <c r="G48" t="n">
-        <v>3853425.260782166</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2055,18 +1869,15 @@
         <v>2195</v>
       </c>
       <c r="G49" t="n">
-        <v>3853425.260782166</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2088,18 +1899,15 @@
         <v>7371466.3076</v>
       </c>
       <c r="G50" t="n">
-        <v>3853425.260782166</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2121,18 +1929,15 @@
         <v>7204436.9814</v>
       </c>
       <c r="G51" t="n">
-        <v>-3351011.720617834</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2154,18 +1959,15 @@
         <v>7188154.1566</v>
       </c>
       <c r="G52" t="n">
-        <v>-3351011.720617834</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2187,18 +1989,15 @@
         <v>5440085.0676</v>
       </c>
       <c r="G53" t="n">
-        <v>-3351011.720617834</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2220,18 +2019,15 @@
         <v>6562948.9672</v>
       </c>
       <c r="G54" t="n">
-        <v>3211937.246582166</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2253,18 +2049,15 @@
         <v>3822762.4799</v>
       </c>
       <c r="G55" t="n">
-        <v>7034699.726482166</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2286,18 +2079,15 @@
         <v>5858202.4927</v>
       </c>
       <c r="G56" t="n">
-        <v>12892902.21918217</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2319,18 +2109,15 @@
         <v>814.0151</v>
       </c>
       <c r="G57" t="n">
-        <v>12893716.23428217</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2352,18 +2139,15 @@
         <v>161674.4471</v>
       </c>
       <c r="G58" t="n">
-        <v>12732041.78718217</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2385,18 +2169,15 @@
         <v>338268.9725</v>
       </c>
       <c r="G59" t="n">
-        <v>12393772.81468217</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2418,18 +2199,15 @@
         <v>40000</v>
       </c>
       <c r="G60" t="n">
-        <v>12433772.81468217</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2451,18 +2229,15 @@
         <v>120000</v>
       </c>
       <c r="G61" t="n">
-        <v>12433772.81468217</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2484,18 +2259,15 @@
         <v>140000</v>
       </c>
       <c r="G62" t="n">
-        <v>12433772.81468217</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2517,18 +2289,15 @@
         <v>39301.9227</v>
       </c>
       <c r="G63" t="n">
-        <v>12433772.81468217</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2550,18 +2319,15 @@
         <v>110245.3806</v>
       </c>
       <c r="G64" t="n">
-        <v>12433772.81468217</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2583,18 +2349,15 @@
         <v>161674.4471</v>
       </c>
       <c r="G65" t="n">
-        <v>12595447.26178217</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2616,18 +2379,15 @@
         <v>688807.515</v>
       </c>
       <c r="G66" t="n">
-        <v>12595447.26178217</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2649,18 +2409,15 @@
         <v>21189.0607</v>
       </c>
       <c r="G67" t="n">
-        <v>12574258.20108217</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2682,18 +2439,15 @@
         <v>82022</v>
       </c>
       <c r="G68" t="n">
-        <v>12574258.20108217</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2715,18 +2469,15 @@
         <v>186915.1497</v>
       </c>
       <c r="G69" t="n">
-        <v>12574258.20108217</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2748,18 +2499,15 @@
         <v>25648</v>
       </c>
       <c r="G70" t="n">
-        <v>12574258.20108217</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2781,18 +2529,15 @@
         <v>26700</v>
       </c>
       <c r="G71" t="n">
-        <v>12574258.20108217</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2814,18 +2559,15 @@
         <v>20000</v>
       </c>
       <c r="G72" t="n">
-        <v>12574258.20108217</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2847,18 +2589,15 @@
         <v>12544.261</v>
       </c>
       <c r="G73" t="n">
-        <v>12586802.46208217</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2880,18 +2619,15 @@
         <v>293.0833</v>
       </c>
       <c r="G74" t="n">
-        <v>12587095.54538217</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2913,18 +2649,15 @@
         <v>295.6831</v>
       </c>
       <c r="G75" t="n">
-        <v>12586799.86228217</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2946,18 +2679,15 @@
         <v>9704.3169</v>
       </c>
       <c r="G76" t="n">
-        <v>12577095.54538217</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2979,18 +2709,21 @@
         <v>488895.994</v>
       </c>
       <c r="G77" t="n">
-        <v>12088199.55138217</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3012,18 +2745,19 @@
         <v>13440</v>
       </c>
       <c r="G78" t="n">
-        <v>12101639.55138217</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3045,18 +2779,21 @@
         <v>32081.9774</v>
       </c>
       <c r="G79" t="n">
-        <v>12101639.55138217</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3078,18 +2815,19 @@
         <v>40000</v>
       </c>
       <c r="G80" t="n">
-        <v>12141639.55138217</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3111,18 +2849,19 @@
         <v>60000</v>
       </c>
       <c r="G81" t="n">
-        <v>12141639.55138217</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3144,18 +2883,19 @@
         <v>326536</v>
       </c>
       <c r="G82" t="n">
-        <v>12141639.55138217</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3177,18 +2917,19 @@
         <v>487968.7155</v>
       </c>
       <c r="G83" t="n">
-        <v>11653670.83588217</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3210,18 +2951,19 @@
         <v>20000</v>
       </c>
       <c r="G84" t="n">
-        <v>11653670.83588217</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3243,18 +2985,19 @@
         <v>9488.909600000001</v>
       </c>
       <c r="G85" t="n">
-        <v>11653670.83588217</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3276,18 +3019,19 @@
         <v>140292</v>
       </c>
       <c r="G86" t="n">
-        <v>11793962.83588217</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3309,18 +3053,19 @@
         <v>65261</v>
       </c>
       <c r="G87" t="n">
-        <v>11793962.83588217</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3342,18 +3087,19 @@
         <v>200000</v>
       </c>
       <c r="G88" t="n">
-        <v>11593962.83588217</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3375,18 +3121,19 @@
         <v>1824.35</v>
       </c>
       <c r="G89" t="n">
-        <v>11595787.18588217</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3408,18 +3155,19 @@
         <v>235128.8487</v>
       </c>
       <c r="G90" t="n">
-        <v>11595787.18588217</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3441,18 +3189,19 @@
         <v>45796.4</v>
       </c>
       <c r="G91" t="n">
-        <v>11549990.78588217</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3474,18 +3223,19 @@
         <v>229840.0082</v>
       </c>
       <c r="G92" t="n">
-        <v>11320150.77768217</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3507,18 +3257,19 @@
         <v>20000</v>
       </c>
       <c r="G93" t="n">
-        <v>11340150.77768217</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3540,18 +3291,19 @@
         <v>20000</v>
       </c>
       <c r="G94" t="n">
-        <v>11340150.77768217</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3573,18 +3325,19 @@
         <v>20000</v>
       </c>
       <c r="G95" t="n">
-        <v>11340150.77768217</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3606,18 +3359,19 @@
         <v>5867.6837</v>
       </c>
       <c r="G96" t="n">
-        <v>11340150.77768217</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3639,18 +3393,19 @@
         <v>2454.1631</v>
       </c>
       <c r="G97" t="n">
-        <v>11340150.77768217</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3672,18 +3427,19 @@
         <v>1478</v>
       </c>
       <c r="G98" t="n">
-        <v>11340150.77768217</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3705,18 +3461,19 @@
         <v>1286929.6946</v>
       </c>
       <c r="G99" t="n">
-        <v>11340150.77768217</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3738,18 +3495,19 @@
         <v>10402.7336</v>
       </c>
       <c r="G100" t="n">
-        <v>11340150.77768217</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3771,18 +3529,19 @@
         <v>1961648.2045</v>
       </c>
       <c r="G101" t="n">
-        <v>11340150.77768217</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3804,18 +3563,19 @@
         <v>147619.0165</v>
       </c>
       <c r="G102" t="n">
-        <v>11487769.79418217</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3837,18 +3597,19 @@
         <v>1353</v>
       </c>
       <c r="G103" t="n">
-        <v>11489122.79418217</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3870,18 +3631,19 @@
         <v>236073.5607</v>
       </c>
       <c r="G104" t="n">
-        <v>11725196.35488217</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3903,18 +3665,19 @@
         <v>246527.3576</v>
       </c>
       <c r="G105" t="n">
-        <v>11725196.35488217</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3936,18 +3699,19 @@
         <v>181242.8411</v>
       </c>
       <c r="G106" t="n">
-        <v>11906439.19598217</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3969,18 +3733,19 @@
         <v>20621.3411</v>
       </c>
       <c r="G107" t="n">
-        <v>11906439.19598217</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4002,18 +3767,19 @@
         <v>500</v>
       </c>
       <c r="G108" t="n">
-        <v>11906939.19598217</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4035,18 +3801,19 @@
         <v>500</v>
       </c>
       <c r="G109" t="n">
-        <v>11907439.19598217</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4068,18 +3835,19 @@
         <v>872.5892</v>
       </c>
       <c r="G110" t="n">
-        <v>11907439.19598217</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4101,18 +3869,19 @@
         <v>9121.455599999999</v>
       </c>
       <c r="G111" t="n">
-        <v>11916560.65158217</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4134,18 +3903,19 @@
         <v>63588.5517</v>
       </c>
       <c r="G112" t="n">
-        <v>11980149.20328217</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4167,18 +3937,19 @@
         <v>133396.853</v>
       </c>
       <c r="G113" t="n">
-        <v>11980149.20328217</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4200,18 +3971,19 @@
         <v>240000</v>
       </c>
       <c r="G114" t="n">
-        <v>11740149.20328217</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4233,18 +4005,19 @@
         <v>60000</v>
       </c>
       <c r="G115" t="n">
-        <v>11800149.20328217</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4266,18 +4039,19 @@
         <v>25151.9</v>
       </c>
       <c r="G116" t="n">
-        <v>11825301.10328217</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4299,18 +4073,19 @@
         <v>49160.045</v>
       </c>
       <c r="G117" t="n">
-        <v>11776141.05828217</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4332,18 +4107,19 @@
         <v>554.8813</v>
       </c>
       <c r="G118" t="n">
-        <v>11776695.93958217</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4365,18 +4141,17 @@
         <v>100000</v>
       </c>
       <c r="G119" t="n">
-        <v>11676695.93958217</v>
-      </c>
-      <c r="H119" t="n">
         <v>2</v>
       </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4398,18 +4173,15 @@
         <v>59986.7666</v>
       </c>
       <c r="G120" t="n">
-        <v>11736682.70618217</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4431,18 +4203,15 @@
         <v>204257.0561</v>
       </c>
       <c r="G121" t="n">
-        <v>11940939.76228217</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4464,18 +4233,15 @@
         <v>300</v>
       </c>
       <c r="G122" t="n">
-        <v>11941239.76228217</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4497,18 +4263,15 @@
         <v>1242087.9186</v>
       </c>
       <c r="G123" t="n">
-        <v>10699151.84368217</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4530,18 +4293,15 @@
         <v>1019369.471</v>
       </c>
       <c r="G124" t="n">
-        <v>9679782.372682165</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4563,18 +4323,15 @@
         <v>346202.261</v>
       </c>
       <c r="G125" t="n">
-        <v>10025984.63368217</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4596,18 +4353,15 @@
         <v>34858.6475</v>
       </c>
       <c r="G126" t="n">
-        <v>10025984.63368217</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4629,18 +4383,15 @@
         <v>15871.4444</v>
       </c>
       <c r="G127" t="n">
-        <v>10025984.63368217</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4662,18 +4413,15 @@
         <v>204442.9114</v>
       </c>
       <c r="G128" t="n">
-        <v>10025984.63368217</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4695,18 +4443,15 @@
         <v>34509.2145</v>
       </c>
       <c r="G129" t="n">
-        <v>9991475.419182165</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4728,18 +4473,15 @@
         <v>35753.5674</v>
       </c>
       <c r="G130" t="n">
-        <v>10027228.98658216</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4761,18 +4503,15 @@
         <v>100000</v>
       </c>
       <c r="G131" t="n">
-        <v>10027228.98658216</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4794,18 +4533,15 @@
         <v>18003.5398</v>
       </c>
       <c r="G132" t="n">
-        <v>10009225.44678216</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4827,18 +4563,15 @@
         <v>3500</v>
       </c>
       <c r="G133" t="n">
-        <v>10012725.44678216</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4860,18 +4593,15 @@
         <v>280000</v>
       </c>
       <c r="G134" t="n">
-        <v>9732725.446782164</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4893,18 +4623,15 @@
         <v>113185.2229</v>
       </c>
       <c r="G135" t="n">
-        <v>9845910.669682164</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4926,18 +4653,15 @@
         <v>60000</v>
       </c>
       <c r="G136" t="n">
-        <v>9785910.669682164</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4959,18 +4683,15 @@
         <v>59631.2832</v>
       </c>
       <c r="G137" t="n">
-        <v>9845541.952882163</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4992,18 +4713,15 @@
         <v>9374.5861</v>
       </c>
       <c r="G138" t="n">
-        <v>9836167.366782162</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5025,18 +4743,15 @@
         <v>21000</v>
       </c>
       <c r="G139" t="n">
-        <v>9857167.366782162</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
